--- a/test/zkc-qualtrics-panel.xlsx
+++ b/test/zkc-qualtrics-panel.xlsx
@@ -1,6 +1,6 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" mc:Ignorable="x15 xr xr6 xr10">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="11013"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
@@ -8,18 +8,15 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/avashevko/proj/code/insead-network-ob2/test/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C423BD2D-DED8-E140-B8CE-FD4F7164E4B4}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="8_{18F6D9C4-ABB8-CD44-96D0-AA7BAD33F276}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="13400" yWindow="7180" windowWidth="27240" windowHeight="16440" xr2:uid="{49055E5D-9112-4E49-9A4F-933C71FADC51}"/>
+    <workbookView xWindow="380" yWindow="0" windowWidth="28040" windowHeight="17440"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="zkc-qualtrics-panel" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="181029"/>
+  <calcPr calcId="191029"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
-      <x15:workbookPr chartTrackingRefBase="1"/>
-    </ext>
     <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
       <xcalcf:calcFeatures>
         <xcalcf:feature name="microsoft.com:RD"/>
@@ -31,124 +28,133 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="37">
-  <si>
-    <t>name</t>
-  </si>
-  <si>
-    <t>1 ZKC</t>
-  </si>
-  <si>
-    <t>2 ZKC</t>
-  </si>
-  <si>
-    <t>3 ZKC</t>
-  </si>
-  <si>
-    <t>4 ZKC</t>
-  </si>
-  <si>
-    <t>5 ZKC</t>
-  </si>
-  <si>
-    <t>6 ZKC</t>
-  </si>
-  <si>
-    <t>7 ZKC</t>
-  </si>
-  <si>
-    <t>8 ZKC</t>
-  </si>
-  <si>
-    <t>9 ZKC</t>
-  </si>
-  <si>
-    <t>10 ZKC</t>
-  </si>
-  <si>
-    <t>11 ZKC</t>
-  </si>
-  <si>
-    <t>12 ZKC</t>
-  </si>
-  <si>
-    <t>13 ZKC</t>
-  </si>
-  <si>
-    <t>14 ZKC</t>
-  </si>
-  <si>
-    <t>15 ZKC</t>
-  </si>
-  <si>
-    <t>16 ZKC</t>
-  </si>
-  <si>
-    <t>17 ZKC</t>
-  </si>
-  <si>
-    <t>18 ZKC</t>
-  </si>
-  <si>
-    <t>19 ZKC</t>
-  </si>
-  <si>
-    <t>20 ZKC</t>
-  </si>
-  <si>
-    <t>21 ZKC</t>
-  </si>
-  <si>
-    <t>22 ZKC</t>
-  </si>
-  <si>
-    <t>23 ZKC</t>
-  </si>
-  <si>
-    <t>24 ZKC</t>
-  </si>
-  <si>
-    <t>25 ZKC</t>
-  </si>
-  <si>
-    <t>26 ZKC</t>
-  </si>
-  <si>
-    <t>27 ZKC</t>
-  </si>
-  <si>
-    <t>28 ZKC</t>
-  </si>
-  <si>
-    <t>29 ZKC</t>
-  </si>
-  <si>
-    <t>30 ZKC</t>
-  </si>
-  <si>
-    <t>31 ZKC</t>
-  </si>
-  <si>
-    <t>32 ZKC</t>
-  </si>
-  <si>
-    <t>33 ZKC</t>
-  </si>
-  <si>
-    <t>34 ZKC</t>
-  </si>
-  <si>
-    <t>id</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="40">
   <si>
     <t>Email</t>
+  </si>
+  <si>
+    <t>avashevko+1+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+2+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+3+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+4+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+5+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+6+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+7+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+8+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+9+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+10+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+11+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+12+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+13+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+14+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+15+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+16+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+17+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+18+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+19+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+20+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+21+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+22+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+23+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+24+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+25+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+26+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+27+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+28+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+29+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+30+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+31+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+32+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+33+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>avashevko+34+zkc@gmail.com</t>
+  </si>
+  <si>
+    <t>FirstName</t>
+  </si>
+  <si>
+    <t>LastName</t>
+  </si>
+  <si>
+    <t>FullName</t>
+  </si>
+  <si>
+    <t>ZKC</t>
+  </si>
+  <si>
+    <t>NodeID</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+  <fonts count="18" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -157,29 +163,315 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="8"/>
+      <sz val="12"/>
+      <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="Calibri Light"/>
+      <family val="2"/>
+      <scheme val="major"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <sz val="12"/>
-      <color theme="10"/>
+      <color rgb="FF006100"/>
       <name val="Calibri"/>
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF9C5700"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FF3F3F76"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF3F3F3F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFA7D00"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="12"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="33">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.79998168889431442"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.59999389629810485"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="65"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="10">
     <border>
       <left/>
       <right/>
@@ -187,18 +479,204 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="thick">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.39997558519241921"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF7F7F7F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF7F7F7F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF7F7F7F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FFB2B2B2"/>
+      </left>
+      <right style="thin">
+        <color rgb="FFB2B2B2"/>
+      </right>
+      <top style="thin">
+        <color rgb="FFB2B2B2"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FFB2B2B2"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom style="double">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
-  <cellStyleXfs count="2">
+  <cellStyleXfs count="42">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="2" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="3" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="6" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="7" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="8" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="9" fillId="5" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="10" fillId="6" borderId="5" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="11" fillId="6" borderId="4" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="6" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="13" fillId="7" borderId="7" applyNumberFormat="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="8" borderId="8" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="9" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="17" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="1" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="1"/>
   </cellXfs>
-  <cellStyles count="2">
-    <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
+  <cellStyles count="42">
+    <cellStyle name="20% - Accent1" xfId="19" builtinId="30" customBuiltin="1"/>
+    <cellStyle name="20% - Accent2" xfId="23" builtinId="34" customBuiltin="1"/>
+    <cellStyle name="20% - Accent3" xfId="27" builtinId="38" customBuiltin="1"/>
+    <cellStyle name="20% - Accent4" xfId="31" builtinId="42" customBuiltin="1"/>
+    <cellStyle name="20% - Accent5" xfId="35" builtinId="46" customBuiltin="1"/>
+    <cellStyle name="20% - Accent6" xfId="39" builtinId="50" customBuiltin="1"/>
+    <cellStyle name="40% - Accent1" xfId="20" builtinId="31" customBuiltin="1"/>
+    <cellStyle name="40% - Accent2" xfId="24" builtinId="35" customBuiltin="1"/>
+    <cellStyle name="40% - Accent3" xfId="28" builtinId="39" customBuiltin="1"/>
+    <cellStyle name="40% - Accent4" xfId="32" builtinId="43" customBuiltin="1"/>
+    <cellStyle name="40% - Accent5" xfId="36" builtinId="47" customBuiltin="1"/>
+    <cellStyle name="40% - Accent6" xfId="40" builtinId="51" customBuiltin="1"/>
+    <cellStyle name="60% - Accent1" xfId="21" builtinId="32" customBuiltin="1"/>
+    <cellStyle name="60% - Accent2" xfId="25" builtinId="36" customBuiltin="1"/>
+    <cellStyle name="60% - Accent3" xfId="29" builtinId="40" customBuiltin="1"/>
+    <cellStyle name="60% - Accent4" xfId="33" builtinId="44" customBuiltin="1"/>
+    <cellStyle name="60% - Accent5" xfId="37" builtinId="48" customBuiltin="1"/>
+    <cellStyle name="60% - Accent6" xfId="41" builtinId="52" customBuiltin="1"/>
+    <cellStyle name="Accent1" xfId="18" builtinId="29" customBuiltin="1"/>
+    <cellStyle name="Accent2" xfId="22" builtinId="33" customBuiltin="1"/>
+    <cellStyle name="Accent3" xfId="26" builtinId="37" customBuiltin="1"/>
+    <cellStyle name="Accent4" xfId="30" builtinId="41" customBuiltin="1"/>
+    <cellStyle name="Accent5" xfId="34" builtinId="45" customBuiltin="1"/>
+    <cellStyle name="Accent6" xfId="38" builtinId="49" customBuiltin="1"/>
+    <cellStyle name="Bad" xfId="7" builtinId="27" customBuiltin="1"/>
+    <cellStyle name="Calculation" xfId="11" builtinId="22" customBuiltin="1"/>
+    <cellStyle name="Check Cell" xfId="13" builtinId="23" customBuiltin="1"/>
+    <cellStyle name="Explanatory Text" xfId="16" builtinId="53" customBuiltin="1"/>
+    <cellStyle name="Good" xfId="6" builtinId="26" customBuiltin="1"/>
+    <cellStyle name="Heading 1" xfId="2" builtinId="16" customBuiltin="1"/>
+    <cellStyle name="Heading 2" xfId="3" builtinId="17" customBuiltin="1"/>
+    <cellStyle name="Heading 3" xfId="4" builtinId="18" customBuiltin="1"/>
+    <cellStyle name="Heading 4" xfId="5" builtinId="19" customBuiltin="1"/>
+    <cellStyle name="Input" xfId="9" builtinId="20" customBuiltin="1"/>
+    <cellStyle name="Linked Cell" xfId="12" builtinId="24" customBuiltin="1"/>
+    <cellStyle name="Neutral" xfId="8" builtinId="28" customBuiltin="1"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
+    <cellStyle name="Note" xfId="15" builtinId="10" customBuiltin="1"/>
+    <cellStyle name="Output" xfId="10" builtinId="21" customBuiltin="1"/>
+    <cellStyle name="Title" xfId="1" builtinId="15" customBuiltin="1"/>
+    <cellStyle name="Total" xfId="17" builtinId="25" customBuiltin="1"/>
+    <cellStyle name="Warning Text" xfId="14" builtinId="11" customBuiltin="1"/>
   </cellStyles>
   <dxfs count="0"/>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
@@ -509,440 +987,645 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{67B5541D-4281-D04C-ABAB-A5BFBB5ABAD5}">
-  <dimension ref="A1:C35"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:E35"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="J7" sqref="J7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A1" t="s">
         <v>35</v>
       </c>
       <c r="B1" t="s">
+        <v>36</v>
+      </c>
+      <c r="C1" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
-        <v>36</v>
-      </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D1" t="s">
+        <v>39</v>
+      </c>
+      <c r="E1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2">
         <v>1</v>
       </c>
       <c r="B2" t="s">
+        <v>38</v>
+      </c>
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="C2" s="1" t="str">
-        <f>_xlfn.CONCAT("avashevko+",A2,"+zkc@gmail.com")</f>
-        <v>avashevko+1+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D2">
+        <v>1</v>
+      </c>
+      <c r="E2" t="str">
+        <f>_xlfn.CONCAT(D2," ",B2)</f>
+        <v>1 ZKC</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3">
         <v>2</v>
       </c>
       <c r="B3" t="s">
+        <v>38</v>
+      </c>
+      <c r="C3" t="s">
         <v>2</v>
       </c>
-      <c r="C3" s="1" t="str">
-        <f t="shared" ref="C3:C35" si="0">_xlfn.CONCAT("avashevko+",A3,"+zkc@gmail.com")</f>
-        <v>avashevko+2+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D3">
+        <v>2</v>
+      </c>
+      <c r="E3" t="str">
+        <f>_xlfn.CONCAT(D3," ",B3)</f>
+        <v>2 ZKC</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4">
         <v>3</v>
       </c>
       <c r="B4" t="s">
+        <v>38</v>
+      </c>
+      <c r="C4" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+3+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D4">
+        <v>3</v>
+      </c>
+      <c r="E4" t="str">
+        <f>_xlfn.CONCAT(D4," ",B4)</f>
+        <v>3 ZKC</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5">
         <v>4</v>
       </c>
       <c r="B5" t="s">
+        <v>38</v>
+      </c>
+      <c r="C5" t="s">
         <v>4</v>
       </c>
-      <c r="C5" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+4+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D5">
+        <v>4</v>
+      </c>
+      <c r="E5" t="str">
+        <f>_xlfn.CONCAT(D5," ",B5)</f>
+        <v>4 ZKC</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6">
         <v>5</v>
       </c>
       <c r="B6" t="s">
+        <v>38</v>
+      </c>
+      <c r="C6" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+5+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D6">
+        <v>5</v>
+      </c>
+      <c r="E6" t="str">
+        <f>_xlfn.CONCAT(D6," ",B6)</f>
+        <v>5 ZKC</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7">
         <v>6</v>
       </c>
       <c r="B7" t="s">
+        <v>38</v>
+      </c>
+      <c r="C7" t="s">
         <v>6</v>
       </c>
-      <c r="C7" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+6+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D7">
+        <v>6</v>
+      </c>
+      <c r="E7" t="str">
+        <f>_xlfn.CONCAT(D7," ",B7)</f>
+        <v>6 ZKC</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8">
         <v>7</v>
       </c>
       <c r="B8" t="s">
+        <v>38</v>
+      </c>
+      <c r="C8" t="s">
         <v>7</v>
       </c>
-      <c r="C8" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+7+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D8">
+        <v>7</v>
+      </c>
+      <c r="E8" t="str">
+        <f>_xlfn.CONCAT(D8," ",B8)</f>
+        <v>7 ZKC</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9">
         <v>8</v>
       </c>
       <c r="B9" t="s">
+        <v>38</v>
+      </c>
+      <c r="C9" t="s">
         <v>8</v>
       </c>
-      <c r="C9" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+8+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D9">
+        <v>8</v>
+      </c>
+      <c r="E9" t="str">
+        <f>_xlfn.CONCAT(D9," ",B9)</f>
+        <v>8 ZKC</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10">
         <v>9</v>
       </c>
       <c r="B10" t="s">
+        <v>38</v>
+      </c>
+      <c r="C10" t="s">
         <v>9</v>
       </c>
-      <c r="C10" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+9+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D10">
+        <v>9</v>
+      </c>
+      <c r="E10" t="str">
+        <f>_xlfn.CONCAT(D10," ",B10)</f>
+        <v>9 ZKC</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11">
         <v>10</v>
       </c>
       <c r="B11" t="s">
+        <v>38</v>
+      </c>
+      <c r="C11" t="s">
         <v>10</v>
       </c>
-      <c r="C11" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+10+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D11">
+        <v>10</v>
+      </c>
+      <c r="E11" t="str">
+        <f>_xlfn.CONCAT(D11," ",B11)</f>
+        <v>10 ZKC</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12">
         <v>11</v>
       </c>
       <c r="B12" t="s">
+        <v>38</v>
+      </c>
+      <c r="C12" t="s">
         <v>11</v>
       </c>
-      <c r="C12" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+11+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D12">
+        <v>11</v>
+      </c>
+      <c r="E12" t="str">
+        <f>_xlfn.CONCAT(D12," ",B12)</f>
+        <v>11 ZKC</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13">
         <v>12</v>
       </c>
       <c r="B13" t="s">
+        <v>38</v>
+      </c>
+      <c r="C13" t="s">
         <v>12</v>
       </c>
-      <c r="C13" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+12+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D13">
+        <v>12</v>
+      </c>
+      <c r="E13" t="str">
+        <f>_xlfn.CONCAT(D13," ",B13)</f>
+        <v>12 ZKC</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14">
         <v>13</v>
       </c>
       <c r="B14" t="s">
+        <v>38</v>
+      </c>
+      <c r="C14" t="s">
         <v>13</v>
       </c>
-      <c r="C14" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+13+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D14">
+        <v>13</v>
+      </c>
+      <c r="E14" t="str">
+        <f>_xlfn.CONCAT(D14," ",B14)</f>
+        <v>13 ZKC</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15">
         <v>14</v>
       </c>
       <c r="B15" t="s">
+        <v>38</v>
+      </c>
+      <c r="C15" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+14+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D15">
+        <v>14</v>
+      </c>
+      <c r="E15" t="str">
+        <f>_xlfn.CONCAT(D15," ",B15)</f>
+        <v>14 ZKC</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16">
         <v>15</v>
       </c>
       <c r="B16" t="s">
+        <v>38</v>
+      </c>
+      <c r="C16" t="s">
         <v>15</v>
       </c>
-      <c r="C16" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+15+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D16">
+        <v>15</v>
+      </c>
+      <c r="E16" t="str">
+        <f>_xlfn.CONCAT(D16," ",B16)</f>
+        <v>15 ZKC</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17">
         <v>16</v>
       </c>
       <c r="B17" t="s">
+        <v>38</v>
+      </c>
+      <c r="C17" t="s">
         <v>16</v>
       </c>
-      <c r="C17" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+16+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D17">
+        <v>16</v>
+      </c>
+      <c r="E17" t="str">
+        <f>_xlfn.CONCAT(D17," ",B17)</f>
+        <v>16 ZKC</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18">
         <v>17</v>
       </c>
       <c r="B18" t="s">
+        <v>38</v>
+      </c>
+      <c r="C18" t="s">
         <v>17</v>
       </c>
-      <c r="C18" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+17+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D18">
+        <v>17</v>
+      </c>
+      <c r="E18" t="str">
+        <f>_xlfn.CONCAT(D18," ",B18)</f>
+        <v>17 ZKC</v>
+      </c>
+    </row>
+    <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19">
         <v>18</v>
       </c>
       <c r="B19" t="s">
+        <v>38</v>
+      </c>
+      <c r="C19" t="s">
         <v>18</v>
       </c>
-      <c r="C19" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+18+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D19">
+        <v>18</v>
+      </c>
+      <c r="E19" t="str">
+        <f>_xlfn.CONCAT(D19," ",B19)</f>
+        <v>18 ZKC</v>
+      </c>
+    </row>
+    <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20">
         <v>19</v>
       </c>
       <c r="B20" t="s">
+        <v>38</v>
+      </c>
+      <c r="C20" t="s">
         <v>19</v>
       </c>
-      <c r="C20" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+19+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D20">
+        <v>19</v>
+      </c>
+      <c r="E20" t="str">
+        <f>_xlfn.CONCAT(D20," ",B20)</f>
+        <v>19 ZKC</v>
+      </c>
+    </row>
+    <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21">
         <v>20</v>
       </c>
       <c r="B21" t="s">
+        <v>38</v>
+      </c>
+      <c r="C21" t="s">
         <v>20</v>
       </c>
-      <c r="C21" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+20+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D21">
+        <v>20</v>
+      </c>
+      <c r="E21" t="str">
+        <f>_xlfn.CONCAT(D21," ",B21)</f>
+        <v>20 ZKC</v>
+      </c>
+    </row>
+    <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22">
         <v>21</v>
       </c>
       <c r="B22" t="s">
+        <v>38</v>
+      </c>
+      <c r="C22" t="s">
         <v>21</v>
       </c>
-      <c r="C22" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+21+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D22">
+        <v>21</v>
+      </c>
+      <c r="E22" t="str">
+        <f>_xlfn.CONCAT(D22," ",B22)</f>
+        <v>21 ZKC</v>
+      </c>
+    </row>
+    <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23">
         <v>22</v>
       </c>
       <c r="B23" t="s">
+        <v>38</v>
+      </c>
+      <c r="C23" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+22+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D23">
+        <v>22</v>
+      </c>
+      <c r="E23" t="str">
+        <f>_xlfn.CONCAT(D23," ",B23)</f>
+        <v>22 ZKC</v>
+      </c>
+    </row>
+    <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24">
         <v>23</v>
       </c>
       <c r="B24" t="s">
+        <v>38</v>
+      </c>
+      <c r="C24" t="s">
         <v>23</v>
       </c>
-      <c r="C24" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+23+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D24">
+        <v>23</v>
+      </c>
+      <c r="E24" t="str">
+        <f>_xlfn.CONCAT(D24," ",B24)</f>
+        <v>23 ZKC</v>
+      </c>
+    </row>
+    <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25">
         <v>24</v>
       </c>
       <c r="B25" t="s">
+        <v>38</v>
+      </c>
+      <c r="C25" t="s">
         <v>24</v>
       </c>
-      <c r="C25" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+24+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D25">
+        <v>24</v>
+      </c>
+      <c r="E25" t="str">
+        <f>_xlfn.CONCAT(D25," ",B25)</f>
+        <v>24 ZKC</v>
+      </c>
+    </row>
+    <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26">
         <v>25</v>
       </c>
       <c r="B26" t="s">
+        <v>38</v>
+      </c>
+      <c r="C26" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+25+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D26">
+        <v>25</v>
+      </c>
+      <c r="E26" t="str">
+        <f>_xlfn.CONCAT(D26," ",B26)</f>
+        <v>25 ZKC</v>
+      </c>
+    </row>
+    <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27">
         <v>26</v>
       </c>
       <c r="B27" t="s">
+        <v>38</v>
+      </c>
+      <c r="C27" t="s">
         <v>26</v>
       </c>
-      <c r="C27" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+26+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D27">
+        <v>26</v>
+      </c>
+      <c r="E27" t="str">
+        <f>_xlfn.CONCAT(D27," ",B27)</f>
+        <v>26 ZKC</v>
+      </c>
+    </row>
+    <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28">
         <v>27</v>
       </c>
       <c r="B28" t="s">
+        <v>38</v>
+      </c>
+      <c r="C28" t="s">
         <v>27</v>
       </c>
-      <c r="C28" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+27+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D28">
+        <v>27</v>
+      </c>
+      <c r="E28" t="str">
+        <f>_xlfn.CONCAT(D28," ",B28)</f>
+        <v>27 ZKC</v>
+      </c>
+    </row>
+    <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29">
         <v>28</v>
       </c>
       <c r="B29" t="s">
+        <v>38</v>
+      </c>
+      <c r="C29" t="s">
         <v>28</v>
       </c>
-      <c r="C29" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+28+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D29">
+        <v>28</v>
+      </c>
+      <c r="E29" t="str">
+        <f>_xlfn.CONCAT(D29," ",B29)</f>
+        <v>28 ZKC</v>
+      </c>
+    </row>
+    <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30">
         <v>29</v>
       </c>
       <c r="B30" t="s">
+        <v>38</v>
+      </c>
+      <c r="C30" t="s">
         <v>29</v>
       </c>
-      <c r="C30" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+29+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D30">
+        <v>29</v>
+      </c>
+      <c r="E30" t="str">
+        <f>_xlfn.CONCAT(D30," ",B30)</f>
+        <v>29 ZKC</v>
+      </c>
+    </row>
+    <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31">
         <v>30</v>
       </c>
       <c r="B31" t="s">
+        <v>38</v>
+      </c>
+      <c r="C31" t="s">
         <v>30</v>
       </c>
-      <c r="C31" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+30+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D31">
+        <v>30</v>
+      </c>
+      <c r="E31" t="str">
+        <f>_xlfn.CONCAT(D31," ",B31)</f>
+        <v>30 ZKC</v>
+      </c>
+    </row>
+    <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32">
         <v>31</v>
       </c>
       <c r="B32" t="s">
+        <v>38</v>
+      </c>
+      <c r="C32" t="s">
         <v>31</v>
       </c>
-      <c r="C32" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+31+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D32">
+        <v>31</v>
+      </c>
+      <c r="E32" t="str">
+        <f>_xlfn.CONCAT(D32," ",B32)</f>
+        <v>31 ZKC</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33">
         <v>32</v>
       </c>
       <c r="B33" t="s">
+        <v>38</v>
+      </c>
+      <c r="C33" t="s">
         <v>32</v>
       </c>
-      <c r="C33" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+32+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D33">
+        <v>32</v>
+      </c>
+      <c r="E33" t="str">
+        <f>_xlfn.CONCAT(D33," ",B33)</f>
+        <v>32 ZKC</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34">
         <v>33</v>
       </c>
       <c r="B34" t="s">
+        <v>38</v>
+      </c>
+      <c r="C34" t="s">
         <v>33</v>
       </c>
-      <c r="C34" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+33+zkc@gmail.com</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.2">
+      <c r="D34">
+        <v>33</v>
+      </c>
+      <c r="E34" t="str">
+        <f>_xlfn.CONCAT(D34," ",B34)</f>
+        <v>33 ZKC</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35">
         <v>34</v>
       </c>
       <c r="B35" t="s">
+        <v>38</v>
+      </c>
+      <c r="C35" t="s">
         <v>34</v>
       </c>
-      <c r="C35" s="1" t="str">
-        <f t="shared" si="0"/>
-        <v>avashevko+34+zkc@gmail.com</v>
+      <c r="D35">
+        <v>34</v>
+      </c>
+      <c r="E35" t="str">
+        <f>_xlfn.CONCAT(D35," ",B35)</f>
+        <v>34 ZKC</v>
       </c>
     </row>
   </sheetData>
-  <phoneticPr fontId="1" type="noConversion"/>
-  <hyperlinks>
-    <hyperlink ref="C2" r:id="rId1" display="avashevko+1+zkc@gmail.com" xr:uid="{D9DB238B-E6E9-D347-81B5-8DD432787490}"/>
-    <hyperlink ref="C3:C35" r:id="rId2" display="avashevko+1+zkc@gmail.com" xr:uid="{244367F9-F256-5547-9D90-B70221BFBFD1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>